--- a/hi-output.XLSX
+++ b/hi-output.XLSX
@@ -1,46 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ezgranet/Documents/GitHub/mmp-calc/mmp-calc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945182BF-C09C-6441-9022-848C48627061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="16040" windowWidth="27240" xWindow="2880" yWindow="460"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="28320" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>PARTY</t>
+  </si>
+  <si>
+    <t>INT SEATS</t>
+  </si>
+  <si>
+    <t>INT VOTES</t>
+  </si>
+  <si>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>CON</t>
+  </si>
+  <si>
+    <t>LAB</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>UKIP</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,19 +93,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -368,404 +414,384 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="320" zoomScaleNormal="320">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="350" zoomScaleNormal="350" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="R6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PARTY</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>INT SEATS</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>INT VOTES</t>
-        </is>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>SNP</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>81600</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
-        <v>11657.14285714286</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>11657.142857142861</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2" t="n">
-        <v>11657.14285714286</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>11657.142857142861</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2" t="n">
-        <v>11657.14285714286</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="I2">
+        <v>11657.142857142861</v>
+      </c>
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="K2" t="n">
-        <v>11657.14285714286</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2">
+        <v>11657.142857142861</v>
+      </c>
+      <c r="L2">
         <v>6</v>
       </c>
-      <c r="M2" t="n">
-        <v>11657.14285714286</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="M2">
+        <v>11657.142857142861</v>
+      </c>
+      <c r="N2">
         <v>6</v>
       </c>
-      <c r="O2" t="n">
-        <v>11657.14285714286</v>
-      </c>
-      <c r="P2" t="n">
+      <c r="O2">
+        <v>11657.142857142861</v>
+      </c>
+      <c r="P2">
         <v>7</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>10200</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>7</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>10200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>LD</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="n">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
         <v>27223</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9074.333333333334</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9074.333333333334</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9074.333333333334</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9074.333333333334</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9074.333333333334</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9074.333333333334</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>9074.333333333334</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" t="n">
-        <v>9074.333333333334</v>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>9074.3333333333339</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>9074.3333333333339</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>9074.3333333333339</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>9074.3333333333339</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>9074.3333333333339</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>9074.3333333333339</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>9074.3333333333339</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>9074.3333333333339</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>CON</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="n">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>44693</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>44693</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>22346.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>22346.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
         <v>14897.66666666667</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>11173.25</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>11173.25</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>3</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>11173.25</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>3</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>11173.25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>22894</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>22894</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>22894</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>11447</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>11447</v>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>11447</v>
       </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>11447</v>
       </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>11447</v>
       </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
         <v>7631.333333333333</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>GRN</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="n">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>14781</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>14781</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>14781</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>14781</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>14781</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>14781</v>
       </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>7390.5</v>
       </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>7390.5</v>
       </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <v>7390.5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>UKIP</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>5344</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5344</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5344</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5344</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5344</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5344</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>5344</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5344</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5344</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>5344</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5344</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>5344</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>5344</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>5344</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>5344</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5344</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>5344</v>
       </c>
     </row>
-    <row r="8"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>